--- a/x2022-08-Tahliye-HELTAS/23-11-10-cevap HESAP.xlsx
+++ b/x2022-08-Tahliye-HELTAS/23-11-10-cevap HESAP.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2022-08-Tahliye-HELTAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAA730F-698D-4FC6-BE14-3E6E07BB6D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2070" yWindow="645" windowWidth="24330" windowHeight="14835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2 - kira hesabı" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="2 - kira hesabı" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,36 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
-  <si>
-    <t xml:space="preserve">HELTAŞ 2012 - 2022 KİRA TAHLİYE DVASI SÜREÇ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esas No-karar no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Açıklama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4485  yevmiye 1. noter</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 yıl süreli kira sözleşmesinin yapılması</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+  <si>
+    <t>HELTAŞ 2012 - 2022 KİRA TAHLİYE DVASI SÜREÇ</t>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>Esas No-karar no</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>4485  yevmiye 1. noter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2 yıl süreli kira sözleşmesinin yapılması</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -83,24 +97,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Ödeme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">si 13,000 TL banka havalesi</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Ödeme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>si 13,000 TL banka havalesi</t>
     </r>
   </si>
   <si>
@@ -116,40 +130,40 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Ödeme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">si 13,000 TL banka havalesi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3431 yevmiye 1. noter ihtarname "kiralanana ihtiyaç olduğunu" belirten ihtarname Davalının geldiğini kabul etmediği</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Ödeme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>si 13,000 TL banka havalesi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3431 yevmiye 1. noter ihtarname "kiralanana ihtiyaç olduğunu" belirten ihtarname Davalının geldiğini kabul etmediği</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -170,22 +184,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sözleşmeye göre 2 yıllık sözleşmenin bitiş tarihi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Taraflarca tahliye için bildirim yapılmadığı içi</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>Sözleşmeye göre 2 yıllık sözleşmenin bitiş tarihi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Taraflarca tahliye için bildirim yapılmadığı içi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -218,14 +232,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Ödeme</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Ödeme</t>
     </r>
     <r>
       <rPr>
@@ -239,12 +253,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">7511 yevmiye 1. noter ihtarname</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>7511 yevmiye 1. noter ihtarname</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -265,30 +279,30 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Bu ihtarın 3. kira yılı bitiş tarihi olan 06-07-2015 olan kira bitim tarihinden en az 3 ay öncesi olan 06-04-2015 tarihinden önce çekilmiş olması tahliye için yeterli idi. Bu ihtara dayanılarak 06-07-2015 tarihinin izleyen 30 gün içerisinde TBK Madde 328 "Bildirime dayalı Tahliye" davası açılmalıydı.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2542 yevmiye 1. noterden "kiralanana ihtiyaç olduğunu" belirten</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Bu ihtarın 3. kira yılı bitiş tarihi olan 06-07-2015 olan kira bitim tarihinden en az 3 ay öncesi olan 06-04-2015 tarihinden önce çekilmiş olması tahliye için yeterli idi. Bu ihtara dayanılarak 06-07-2015 tarihinin izleyen 30 gün içerisinde TBK Madde 328 "Bildirime dayalı Tahliye" davası açılmalıydı.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2542 yevmiye 1. noterden "kiralanana ihtiyaç olduğunu" belirten</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -321,14 +335,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Ödeme</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Ödeme</t>
     </r>
     <r>
       <rPr>
@@ -342,7 +356,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2015/1016</t>
+    <t>2015/1016</t>
   </si>
   <si>
     <r>
@@ -357,14 +371,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">tahliye davası</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>tahliye davası</t>
     </r>
     <r>
       <rPr>
@@ -378,7 +392,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2015/1016-2016/749</t>
+    <t>2015/1016-2016/749</t>
   </si>
   <si>
     <r>
@@ -393,30 +407,30 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">TAHLİYE KARARI VERİLDİ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Davalı TAHLİYE KARARININ İPTALİ için TEMYİZe BAŞVURDU TEFE-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>TAHLİYE KARARI VERİLDİ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Davalı TAHLİYE KARARININ İPTALİ için TEMYİZe BAŞVURDU TEFE-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -433,11 +447,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">BELİRTİLİYOR</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/6422-2017/15565</t>
+      <t>BELİRTİLİYOR</t>
+    </r>
+  </si>
+  <si>
+    <t>2017/6422-2017/15565</t>
   </si>
   <si>
     <r>
@@ -452,18 +466,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">tahliye kararı reddedildi.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/2115-2018/841</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>tahliye kararı reddedildi.</t>
+    </r>
+  </si>
+  <si>
+    <t>2017/2115-2018/841</t>
   </si>
   <si>
     <r>
@@ -478,18 +492,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">TAHLİYE REDDEDİLDİ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/7795</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>TAHLİYE REDDEDİLDİ</t>
+    </r>
+  </si>
+  <si>
+    <t>2022/7795</t>
   </si>
   <si>
     <r>
@@ -504,7 +518,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -527,14 +541,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Takibe itiraz</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Takibe itiraz</t>
     </r>
     <r>
       <rPr>
@@ -548,14 +562,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Davalı avukatı BURADA HATA yaptı.</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Davalı avukatı BURADA HATA yaptı.</t>
     </r>
     <r>
       <rPr>
@@ -581,30 +595,30 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Takip durduruldu</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/219</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">İtitrazın kaldırılması davası</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Takip durduruldu</t>
+    </r>
+  </si>
+  <si>
+    <t>2022/219</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>İtitrazın kaldırılması davası</t>
     </r>
     <r>
       <rPr>
@@ -618,7 +632,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2022/219-2022/402</t>
+    <t>2022/219-2022/402</t>
   </si>
   <si>
     <r>
@@ -633,14 +647,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Avukatın EKSİK takip talebi vermesi sonucuc dava reddedildi.</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Avukatın EKSİK takip talebi vermesi sonucuc dava reddedildi.</t>
     </r>
   </si>
   <si>
@@ -656,28 +670,28 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">istinaf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">a başvuruldu.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/933-2023/1627</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>istinaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>a başvuruldu.</t>
+    </r>
+  </si>
+  <si>
+    <t>2023/933-2023/1627</t>
   </si>
   <si>
     <r>
@@ -692,14 +706,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">"itirazın kaldırılması" talebinin "tahliye" den bağımsız olduğu</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>"itirazın kaldırılması" talebinin "tahliye" den bağımsız olduğu</t>
     </r>
     <r>
       <rPr>
@@ -713,14 +727,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">davanın tekrar görülmesine</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>davanın tekrar görülmesine</t>
     </r>
     <r>
       <rPr>
@@ -734,12 +748,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2023/206</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>2023/206</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -760,47 +774,47 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">tekrar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TOKAT İCRA HUKUK MAHKEMESİ celse 1 de "</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Dosyanın hesap bilirkişisine tevdii</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>tekrar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>TOKAT İCRA HUKUK MAHKEMESİ celse 1 de "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>Dosyanın hesap bilirkişisine tevdii</t>
     </r>
     <r>
       <rPr>
@@ -826,7 +840,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -848,14 +862,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">dosyaya konu taşınmazın güncel kaydının fotoğraflarının istenmesi ile çevre araştırması yapılarak taşınmazın davalı tarafından hangi dönemlerde kullanıldığı</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>dosyaya konu taşınmazın güncel kaydının fotoğraflarının istenmesi ile çevre araştırması yapılarak taşınmazın davalı tarafından hangi dönemlerde kullanıldığı</t>
     </r>
     <r>
       <rPr>
@@ -871,14 +885,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">18/01/2024</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>18/01/2024</t>
     </r>
     <r>
       <rPr>
@@ -892,7 +906,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -909,80 +923,80 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">verildi</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">YAPILACAKLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kira hesabının komple çıkarılarak bilirkişinin belirlediği tutara itiraz edilecek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutar hesaplanırken 3. ve 4. yıllarda yapılan tüfe artışı göz önünde bulundurularak tekrar hesaplanması istenecek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kullanılan dönemle ilgili olarak "mecur kullanılmasa dahi kira bedeli ödenir" içtihatı belirtilecek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davalının sözleşmeyi fesih ettiğine dair ihtarname çekmediğinden süresiz sözleşmenin halen devam ettiği içtihatla belirtilecek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Hukuk Dairesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esas No: 2017/8010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karar No: 2019/4357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karar Tarihi: 09.05.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yargıtay 3. Hukuk Dairesi 2017/8010 Esas 2019/4357 Karar Sayılı İlamı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Hukuk Dairesi         2017/8010 E.  ,  2019/4357 K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"İçtihat Metni"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAHKEMESİ :SULH HUKUK MAHKEMESİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taraflar arasındaki itirazın iptali davasının mahkemece yapılan yargılaması sonucunda, davanın reddine yönelik olarak verilen hükmün, süresi içinde davacı vekili tarafından temyiz edilmesi üzerine; temyiz dilekçesinin kabulüne karar verildikten sonra, dosya içerisindeki kağıtlar okunup gereği düşünüldü:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y A R G I T A Y K A R A R I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davacı vekili; müvekkiline ait taşınmazın davalı şirkete kiralanmasına yönelik 01/01/2012 tarihli 4 yıllık kira sözleşmesi imzalandığını, başlangıç tarihinde aylık kira bedelinin 5.000,00 TL + KDV olduğunu, ilk yıl kira bedelini bu şekilde ödendiğini, sonraki yıllarda ise davalı kiracı tarafından TÜFE oranında artış yapılarak ödeme yapılmaya devam edildiğini, 2015 yılı Ocak ve Şubat ayı kira bedellerinin ödenmemesi nedeniyle icra takibi başlatıldığını, davalının itiraz ettiğini belirterek; itirazın iptaline ve icra inkar tazminatına karar verilmesini talep ve dava etmiştir.</t>
+      <t>verildi</t>
+    </r>
+  </si>
+  <si>
+    <t>YAPILACAKLAR</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Kira hesabının komple çıkarılarak bilirkişinin belirlediği tutara itiraz edilecek.</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Tutar hesaplanırken 3. ve 4. yıllarda yapılan tüfe artışı göz önünde bulundurularak tekrar hesaplanması istenecek</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Kullanılan dönemle ilgili olarak "mecur kullanılmasa dahi kira bedeli ödenir" içtihatı belirtilecek</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>Davalının sözleşmeyi fesih ettiğine dair ihtarname çekmediğinden süresiz sözleşmenin halen devam ettiği içtihatla belirtilecek</t>
+  </si>
+  <si>
+    <t>3. Hukuk Dairesi</t>
+  </si>
+  <si>
+    <t>Esas No: 2017/8010</t>
+  </si>
+  <si>
+    <t>Karar No: 2019/4357</t>
+  </si>
+  <si>
+    <t>Karar Tarihi: 09.05.2019</t>
+  </si>
+  <si>
+    <t>Yargıtay 3. Hukuk Dairesi 2017/8010 Esas 2019/4357 Karar Sayılı İlamı</t>
+  </si>
+  <si>
+    <t>3. Hukuk Dairesi         2017/8010 E.  ,  2019/4357 K.</t>
+  </si>
+  <si>
+    <t>"İçtihat Metni"</t>
+  </si>
+  <si>
+    <t>MAHKEMESİ :SULH HUKUK MAHKEMESİ</t>
+  </si>
+  <si>
+    <t>Taraflar arasındaki itirazın iptali davasının mahkemece yapılan yargılaması sonucunda, davanın reddine yönelik olarak verilen hükmün, süresi içinde davacı vekili tarafından temyiz edilmesi üzerine; temyiz dilekçesinin kabulüne karar verildikten sonra, dosya içerisindeki kağıtlar okunup gereği düşünüldü:</t>
+  </si>
+  <si>
+    <t>Y A R G I T A Y K A R A R I</t>
+  </si>
+  <si>
+    <t>Davacı vekili; müvekkiline ait taşınmazın davalı şirkete kiralanmasına yönelik 01/01/2012 tarihli 4 yıllık kira sözleşmesi imzalandığını, başlangıç tarihinde aylık kira bedelinin 5.000,00 TL + KDV olduğunu, ilk yıl kira bedelini bu şekilde ödendiğini, sonraki yıllarda ise davalı kiracı tarafından TÜFE oranında artış yapılarak ödeme yapılmaya devam edildiğini, 2015 yılı Ocak ve Şubat ayı kira bedellerinin ödenmemesi nedeniyle icra takibi başlatıldığını, davalının itiraz ettiğini belirterek; itirazın iptaline ve icra inkar tazminatına karar verilmesini talep ve dava etmiştir.</t>
   </si>
   <si>
     <t xml:space="preserve">Davalı vekili; müvekkilinin kira kontratına bağlı olarak kira dönemleri ve hususi şartlara bakılmaksızın banka havaleleri ile ödeme yaptığını, kira sözleşmesine ilişkin uzman kişilerden yardım aldıklarında mükerrer fatura düzenlendiğini fark ettiklerini, sözleşmeye göre artışın kira kontratı bitiminde yapılacağını, davacıya ödemeler dikkate alındığında herhangibir borçlarının bulunmadığını savunarak davanın reddini ve kötüniyet tazminatına karar verilmesini istemiştir. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mahkemece; kira sözleşmesinin hususi şartlar kısmının 6. maddesine göre kira bedelinde sözleşme sona erince sonraki yıllar için TÜFE oranında artırım yapılması kararlaştırıldığı, kira süresinin bitim tarihinin 31/12/2015 olduğu, bu itibarla icra takibine konu edilen "2015 yılı Ocak ve Şubat" aylarına ilişkin kira alacağı ve ferileri yönünden kira sözleşmesinin bitim tarihinden önceki tarihlere ilişkin olduğundan artırımın yerinde olmadığı, taraflar arasında uyuşmazlık konusu olmayan yazılı kira sözleşmesi tarafları bağladığı, davalı kiracının ihtirazı kayıt ileri sürmeden kendince artırım yaparak kira bedeli ödemesi ve bunu teamül haline getirmesinin de sonucu değiştirmeyeceği gerekçesiyle icra takibine konu aylara ilişkin kira borcu da bulunmadığından davanın reddine karar verilmiş, hüküm süresi içerisinde davacı vekili tarafından temyiz edilmiştir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Dosyadaki yazılara, kararın dayandığı delillerle kanuni gerektirici sebeplere ve özellikle delillerin takdirinde bir isabetsizlik görülmemesine göre, davacı vekilinin aşağıdaki bent dışında kalan sair temyiz itirazlarının reddi gerekir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Dava; kira bedellerinin tahsiline için başlatılan icra takibine itirazın iptali istemine ilişkindir.</t>
+    <t>Mahkemece; kira sözleşmesinin hususi şartlar kısmının 6. maddesine göre kira bedelinde sözleşme sona erince sonraki yıllar için TÜFE oranında artırım yapılması kararlaştırıldığı, kira süresinin bitim tarihinin 31/12/2015 olduğu, bu itibarla icra takibine konu edilen "2015 yılı Ocak ve Şubat" aylarına ilişkin kira alacağı ve ferileri yönünden kira sözleşmesinin bitim tarihinden önceki tarihlere ilişkin olduğundan artırımın yerinde olmadığı, taraflar arasında uyuşmazlık konusu olmayan yazılı kira sözleşmesi tarafları bağladığı, davalı kiracının ihtirazı kayıt ileri sürmeden kendince artırım yaparak kira bedeli ödemesi ve bunu teamül haline getirmesinin de sonucu değiştirmeyeceği gerekçesiyle icra takibine konu aylara ilişkin kira borcu da bulunmadığından davanın reddine karar verilmiş, hüküm süresi içerisinde davacı vekili tarafından temyiz edilmiştir.</t>
+  </si>
+  <si>
+    <t>1-Dosyadaki yazılara, kararın dayandığı delillerle kanuni gerektirici sebeplere ve özellikle delillerin takdirinde bir isabetsizlik görülmemesine göre, davacı vekilinin aşağıdaki bent dışında kalan sair temyiz itirazlarının reddi gerekir.</t>
+  </si>
+  <si>
+    <t>2- Dava; kira bedellerinin tahsiline için başlatılan icra takibine itirazın iptali istemine ilişkindir.</t>
   </si>
   <si>
     <t xml:space="preserve">Dosyanın incelenmesinde; taraflar arasında 01/01/2012 başlangıç tarihli 4 yıl süreli kira sözleşmesi imzalandığı, aylık kira bedelinin 5000 TL + KDV olarak belirlendiği, kira artışına yönelik 6. madde de ise; “ kontrat bitiminde kira rayiç bedeline TÜFE oranında artış yapılacağının” kabul edildiği, bu hükme rağmen sözleşmenin devamı süresince davalı kiracı tarafından her yıl artış yapılarak kira bedelinin ödendiği, daha sonra davacı tarafından 2015 Ocak ve Şubat ayı kirasına ilişkin icra takibi başlatıldığı, davalı şirketin takibe artış hükmünün kira müddeti bitiminde olacağı ve fazla ödeme yapıldığını ileri sürerek itiraz ettiği görülmektedir. </t>
@@ -994,56 +1008,56 @@
     <t xml:space="preserve">O halde mahkemece; taraflar arasındaki kira sözleşmesi kapsamında davalı kiracı tarafından takibe konu dönem öncesine kadar artış yapılarak kira bedellerinin ödendiği belirlenmekle, artış şekli davalı kiracı tarafından benimsendiğinden takibe konu dönem öncesi son yıla ait kira bedeli dikkate alınarak davacının talep edebileceği alacak miktarının tespit edilmesinin ardından oluşacak sonuca göre karar verilmesi gerekirken, yazılı şekilde karar verilmesi doğru görülmemiş, bozmayı gerektirmiştir. </t>
   </si>
   <si>
-    <t xml:space="preserve">SONUÇ; Yukarıda birinci bentte açıklanan nedenlerle davacı vekilinin sair temyiz itirazlarının reddine,ikinci bentte açıklanan nedenlerle hükmün davacı yararına BOZULMASINA ve peşin alınan temyiz harcının istek halinde temyiz edene iadesine, 6100 sayılı HMK"nun geçici madde 3 atfıyla 1086 sayılı HUMK.nun 440.maddesi gereğince karar düzeltme yolu kapalı olmak üzere, 09/05/2019 tarihinde oy birliğiyle karar verildi.</t>
+    <t>SONUÇ; Yukarıda birinci bentte açıklanan nedenlerle davacı vekilinin sair temyiz itirazlarının reddine,ikinci bentte açıklanan nedenlerle hükmün davacı yararına BOZULMASINA ve peşin alınan temyiz harcının istek halinde temyiz edene iadesine, 6100 sayılı HMK"nun geçici madde 3 atfıyla 1086 sayılı HUMK.nun 440.maddesi gereğince karar düzeltme yolu kapalı olmak üzere, 09/05/2019 tarihinde oy birliğiyle karar verildi.</t>
   </si>
   <si>
     <t xml:space="preserve">12 aylık ortalama tüfe artışı ile </t>
   </si>
   <si>
-    <t xml:space="preserve">temmuz tüfe oranı baz alınmıştır</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mevcut takip ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yıllık kira</t>
+    <t>temmuz tüfe oranı baz alınmıştır</t>
+  </si>
+  <si>
+    <t>Mevcut takip ile</t>
+  </si>
+  <si>
+    <t>yıllık kira</t>
   </si>
   <si>
     <t xml:space="preserve">temmuz </t>
   </si>
   <si>
-    <t xml:space="preserve">tüfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yasal faiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yıl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ana para</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toplam alacak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Açılacak dava ile</t>
+    <t>tüfe</t>
+  </si>
+  <si>
+    <t>yasal faiz</t>
+  </si>
+  <si>
+    <t>yıl</t>
+  </si>
+  <si>
+    <t>ana para</t>
+  </si>
+  <si>
+    <t>faiz</t>
+  </si>
+  <si>
+    <t>toplam alacak</t>
+  </si>
+  <si>
+    <t>Açılacak dava ile</t>
+  </si>
+  <si>
+    <t>Davacı kiracı tarafından, kiralananın 31.12.2011 tarihinde tahliye edildiği iddia edilmesine rağmen bu iddia kanıtlanamamıştır. Davalı kiraya veren ise cevap dilekçesinde kira ilişkisinin halen devam ettiğini savunmuş olup, yargılama sırasında anahtarların 2013 yılı Nisan ayında teslim edildiğini belirtmiştir. Bu durumda icra takibine ve davaya konu aylara ait kira paralarının işlemiş kira alacağı olduğu ve davacının ödediğini ispat edemediği gerekçesiyle davanın reddine karar verilmesi gerekirken, mahkemece, kiraya verenin, kiracının göndermiş olduğu 29.3.2012 tarihli ihtarnamenin tebliğiyle kiralananın tahliye edildiğini öğrendiği, gerekçesiyle davanın reddine karar verilmesi doğru görülmemiştir (Yargıtay 6. HD - Karar : 2015/1634).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1052,22 +1066,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1075,8 +1074,8 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1084,7 +1083,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1092,7 +1091,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1100,7 +1099,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1141,14 +1140,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1158,137 +1157,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1347,36 +1283,344 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:D61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="75.86"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1387,8 +1631,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="n">
+    <row r="3" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>41096</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1398,56 +1642,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>41138</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>41138</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>41806</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>41826</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>41826</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>41891</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
+    <row r="10" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>41990</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1457,23 +1701,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>42144</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>42200</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,8 +1725,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>42488</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1492,16 +1736,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>42507</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>43063</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1511,8 +1755,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="n">
+    <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
         <v>43081</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1522,8 +1766,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>44731</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1533,24 +1777,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
+    <row r="21" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>44734</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>44734</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>44776</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1560,8 +1804,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>44979</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1571,19 +1815,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
         <v>44991</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <v>45083</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1593,8 +1837,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
         <v>45083</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1604,37 +1848,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
+    <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>45197</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
+    <row r="30" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
         <v>45239</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
         <v>45239</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="D32" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>42</v>
       </c>
@@ -1642,23 +1886,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>48</v>
       </c>
@@ -1666,388 +1910,385 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D38" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D41" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D42" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D44" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D45" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D47" s="16"/>
     </row>
-    <row r="48" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="D48" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="16"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="16"/>
     </row>
-    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="16"/>
     </row>
-    <row r="53" customFormat="false" ht="110.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="4:4" ht="105" x14ac:dyDescent="0.25">
       <c r="D53" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="94.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="4:4" ht="90" x14ac:dyDescent="0.25">
       <c r="D54" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="156.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="4:4" ht="165" x14ac:dyDescent="0.25">
       <c r="D55" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="4:4" ht="45" x14ac:dyDescent="0.25">
       <c r="D56" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="32.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D57" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="125.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="4:4" ht="120" x14ac:dyDescent="0.25">
       <c r="D58" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="110.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="4:4" ht="105" x14ac:dyDescent="0.25">
       <c r="D59" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="94.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="4:4" ht="105" x14ac:dyDescent="0.25">
       <c r="D60" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="79.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="4:4" ht="90" x14ac:dyDescent="0.25">
       <c r="D61" s="15" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="67" spans="4:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:H30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="3.14"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="0" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>2012</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>2013</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>13000</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>2013</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>2014</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>13000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>2014</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>2015</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>15000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>2015</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>2016</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>20000</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>2016</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>2017</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="19">
         <v>7.91</v>
       </c>
-      <c r="E12" s="20" t="n">
-        <f aca="false">E11+(E11*D12/100)</f>
+      <c r="E12" s="20">
+        <f>E11+(E11*D12/100)</f>
         <v>21582</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E13" s="20"/>
       <c r="H13" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>2017</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>2018</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="19">
         <v>9.44</v>
       </c>
-      <c r="E14" s="20" t="n">
-        <f aca="false">E12+(E12*D14/100)</f>
-        <v>23619.3408</v>
-      </c>
-      <c r="F14" s="20" t="n">
-        <f aca="false">E14</f>
-        <v>23619.3408</v>
-      </c>
-      <c r="G14" s="20" t="n">
-        <f aca="false">F14*$G$12*H14/100</f>
-        <v>12754.444032</v>
-      </c>
-      <c r="H14" s="17" t="n">
+      <c r="E14" s="20">
+        <f>E12+(E12*D14/100)</f>
+        <v>23619.340799999998</v>
+      </c>
+      <c r="F14" s="20">
+        <f>E14</f>
+        <v>23619.340799999998</v>
+      </c>
+      <c r="G14" s="20">
+        <f>F14*$G$12*H14/100</f>
+        <v>12754.444032000001</v>
+      </c>
+      <c r="H14" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>2018</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>2019</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="19">
         <v>12</v>
       </c>
-      <c r="E15" s="20" t="n">
-        <f aca="false">E14+(E14*D15/100)</f>
-        <v>26453.661696</v>
-      </c>
-      <c r="F15" s="20" t="n">
-        <f aca="false">F14+E15</f>
-        <v>50073.002496</v>
-      </c>
-      <c r="G15" s="20" t="n">
-        <f aca="false">F15*$G$12*H15/100</f>
-        <v>22532.8511232</v>
-      </c>
-      <c r="H15" s="17" t="n">
+      <c r="E15" s="20">
+        <f>E14+(E14*D15/100)</f>
+        <v>26453.661695999996</v>
+      </c>
+      <c r="F15" s="20">
+        <f>F14+E15</f>
+        <v>50073.002495999994</v>
+      </c>
+      <c r="G15" s="20">
+        <f>F15*$G$12*H15/100</f>
+        <v>22532.851123199995</v>
+      </c>
+      <c r="H15" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>2019</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>2020</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="19">
         <v>19.91</v>
       </c>
-      <c r="E16" s="20" t="n">
-        <f aca="false">E15+(E15*D16/100)</f>
-        <v>31720.5857396736</v>
-      </c>
-      <c r="F16" s="20" t="n">
-        <f aca="false">F15+E16</f>
-        <v>81793.5882356736</v>
-      </c>
-      <c r="G16" s="20" t="n">
-        <f aca="false">F16*$G$12*H16/100</f>
-        <v>29445.6917648425</v>
-      </c>
-      <c r="H16" s="17" t="n">
+      <c r="E16" s="20">
+        <f>E15+(E15*D16/100)</f>
+        <v>31720.585739673596</v>
+      </c>
+      <c r="F16" s="20">
+        <f>F15+E16</f>
+        <v>81793.588235673582</v>
+      </c>
+      <c r="G16" s="20">
+        <f>F16*$G$12*H16/100</f>
+        <v>29445.69176484249</v>
+      </c>
+      <c r="H16" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>2020</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>2021</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="19">
         <v>11.51</v>
       </c>
-      <c r="E17" s="20" t="n">
-        <f aca="false">E16+(E16*D17/100)</f>
-        <v>35371.62515831</v>
-      </c>
-      <c r="F17" s="20" t="n">
-        <f aca="false">F16+E17</f>
-        <v>117165.213393984</v>
-      </c>
-      <c r="G17" s="20" t="n">
-        <f aca="false">F17*$G$12*H17/100</f>
-        <v>31634.6076163756</v>
-      </c>
-      <c r="H17" s="17" t="n">
+      <c r="E17" s="20">
+        <f>E16+(E16*D17/100)</f>
+        <v>35371.625158310024</v>
+      </c>
+      <c r="F17" s="20">
+        <f>F16+E17</f>
+        <v>117165.21339398361</v>
+      </c>
+      <c r="G17" s="20">
+        <f>F17*$G$12*H17/100</f>
+        <v>31634.607616375572</v>
+      </c>
+      <c r="H17" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>2021</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>2022</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="19">
         <v>15.15</v>
       </c>
-      <c r="E18" s="20" t="n">
-        <f aca="false">E17+(E17*D18/100)</f>
-        <v>40730.426369794</v>
-      </c>
-      <c r="F18" s="20" t="n">
-        <f aca="false">F17+E18</f>
-        <v>157895.639763778</v>
-      </c>
-      <c r="G18" s="20" t="n">
-        <f aca="false">F18*$G$12*H18/100</f>
-        <v>28421.21515748</v>
-      </c>
-      <c r="H18" s="17" t="n">
+      <c r="E18" s="20">
+        <f>E17+(E17*D18/100)</f>
+        <v>40730.42636979399</v>
+      </c>
+      <c r="F18" s="20">
+        <f>F17+E18</f>
+        <v>157895.63976377761</v>
+      </c>
+      <c r="G18" s="20">
+        <f>F18*$G$12*H18/100</f>
+        <v>28421.215157479968</v>
+      </c>
+      <c r="H18" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="21" t="n">
-        <f aca="false">SUM(E14:E18)</f>
-        <v>157895.639763778</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="21">
+        <f>SUM(E14:E18)</f>
+        <v>157895.63976377761</v>
       </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="21" t="n">
-        <f aca="false">SUM(G14:G18)</f>
-        <v>124788.809693898</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="21">
+        <f>SUM(G14:G18)</f>
+        <v>124788.80969389803</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E20" s="21" t="s">
         <v>77</v>
       </c>
@@ -2056,96 +2297,96 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E21" s="21"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="21" t="n">
-        <f aca="false">E19+G19</f>
-        <v>282684.449457676</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="21">
+        <f>E19+G19</f>
+        <v>282684.44945767563</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>2022</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>2023</v>
       </c>
-      <c r="D25" s="19" t="n">
+      <c r="D25" s="19">
         <v>49.65</v>
       </c>
-      <c r="E25" s="20" t="n">
-        <f aca="false">E18+(E18*D25/100)</f>
-        <v>60953.0830623967</v>
-      </c>
-      <c r="F25" s="20" t="n">
-        <f aca="false">E25</f>
-        <v>60953.0830623967</v>
-      </c>
-      <c r="G25" s="20" t="n">
-        <f aca="false">F25*$G$12*H25/100</f>
-        <v>10971.5549512314</v>
-      </c>
-      <c r="H25" s="17" t="n">
+      <c r="E25" s="20">
+        <f>E18+(E18*D25/100)</f>
+        <v>60953.083062396705</v>
+      </c>
+      <c r="F25" s="20">
+        <f>E25</f>
+        <v>60953.083062396705</v>
+      </c>
+      <c r="G25" s="20">
+        <f>F25*$G$12*H25/100</f>
+        <v>10971.554951231408</v>
+      </c>
+      <c r="H25" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>2023</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>2024</v>
       </c>
-      <c r="D26" s="23" t="n">
+      <c r="D26" s="23">
         <v>57.45</v>
       </c>
-      <c r="E26" s="20" t="n">
-        <f aca="false">E25+(E25*D26/100)</f>
-        <v>95970.6292817436</v>
-      </c>
-      <c r="F26" s="20" t="n">
-        <f aca="false">F25+E26</f>
-        <v>156923.71234414</v>
-      </c>
-      <c r="G26" s="20" t="n">
-        <f aca="false">F26*$G$12*H26/100</f>
-        <v>14123.1341109726</v>
-      </c>
-      <c r="H26" s="17" t="n">
+      <c r="E26" s="20">
+        <f>E25+(E25*D26/100)</f>
+        <v>95970.629281743604</v>
+      </c>
+      <c r="F26" s="20">
+        <f>F25+E26</f>
+        <v>156923.71234414031</v>
+      </c>
+      <c r="G26" s="20">
+        <f>F26*$G$12*H26/100</f>
+        <v>14123.134110972627</v>
+      </c>
+      <c r="H26" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="21" t="n">
-        <f aca="false">SUM(E25:E26)</f>
-        <v>156923.71234414</v>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="21">
+        <f>SUM(E25:E26)</f>
+        <v>156923.71234414031</v>
       </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="21" t="n">
-        <f aca="false">SUM(G25:G26)</f>
-        <v>25094.689062204</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="21">
+        <f>SUM(G25:G26)</f>
+        <v>25094.689062204037</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E28" s="21" t="s">
         <v>77</v>
       </c>
@@ -2154,26 +2395,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E29" s="21"/>
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E30" s="21"/>
       <c r="F30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="21" t="n">
-        <f aca="false">E27+G27</f>
-        <v>182018.401406344</v>
+      <c r="G30" s="21">
+        <f>E27+G27</f>
+        <v>182018.40140634435</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/x2022-08-Tahliye-HELTAS/23-11-10-cevap HESAP.xlsx
+++ b/x2022-08-Tahliye-HELTAS/23-11-10-cevap HESAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2022-08-Tahliye-HELTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAA730F-698D-4FC6-BE14-3E6E07BB6D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C207A-9727-47D8-8FDB-DD772E4C93D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="645" windowWidth="24330" windowHeight="14835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,6 +1138,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1160,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1218,6 +1224,9 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1877,7 @@
       <c r="B31" s="7">
         <v>45239</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="24" t="s">
         <v>40</v>
       </c>
     </row>
